--- a/MetadataCompilation20131018.xlsx
+++ b/MetadataCompilation20131018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="144" windowWidth="23760" windowHeight="8268" tabRatio="826" activeTab="2"/>
+    <workbookView xWindow="210" yWindow="150" windowWidth="23760" windowHeight="8265" tabRatio="826" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="433">
   <si>
     <t>Title</t>
   </si>
@@ -2601,12 +2601,6 @@
   </si>
   <si>
     <t>Copyright © Arizona Geological Survey, 2012</t>
-  </si>
-  <si>
-    <t>* or location keywords?</t>
-  </si>
-  <si>
-    <t>*assume same a dist (where IGSHPA concerned?)</t>
   </si>
   <si>
     <t>Alias</t>
@@ -2896,6 +2890,15 @@
   <si>
     <t>Christy Caudill,Stephen Richard</t>
   </si>
+  <si>
+    <t>metadata_unique_id</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
 </sst>
 </file>
 
@@ -2907,7 +2910,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="78">
+  <fonts count="77">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3397,13 +3400,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color indexed="56"/>
@@ -3440,7 +3436,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="70">
+  <fills count="68">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3810,18 +3806,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4862,7 +4846,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5323,15 +5307,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="72" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="72" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="67" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5344,7 +5319,7 @@
     <xf numFmtId="166" fontId="21" fillId="67" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="53" xfId="270" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="53" xfId="270" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5363,7 +5338,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="30" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5467,6 +5442,9 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="47" borderId="48" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="347">
@@ -5818,7 +5796,21 @@
     <cellStyle name="Warning Text 8" xfId="344"/>
     <cellStyle name="Warning Text 9" xfId="338"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6045,13 +6037,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>360045</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247658</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6060,8 +6052,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360045" y="365761"/>
-          <a:ext cx="7858133" cy="8023859"/>
+          <a:off x="360045" y="381002"/>
+          <a:ext cx="7821938" cy="8315324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6269,37 +6261,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The metadata content model is presented as a list of fields in the FieldList tab. Each field has a formal name that is used by computer programs to identify the field, and has an alias that is used to label the field in the template tables in this document. Each alias should have a one-to-one correspondance to a formal field name to avoid ambiguity.</a:t>
+            <a:t>The metadata content model is presented as a list of fields in the FieldList tab. Each field has a formal name that is used by computer programs to identify the field, and has an alias that is used to label the field in the template tables in this document. Each alias should have a one-to-one correspondence to a formal field name to avoid ambiguity.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Metadata template worksheets address the use case in which an organization already has metadata compiled in some tabular form. Two template worksheets are provided in the workbook: </a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Basic Metadata Template</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6309,7 +6286,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: This worksheet contains fields (columns) for the most commonly included metadata elements </a:t>
+            <a:t>Metadata template worksheets address the use case in which an organization already has metadata compiled in some tabular form. Two template worksheets are provided in the workbook: </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6323,7 +6300,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Metadata Template</a:t>
+            <a:t>Basic Metadata Template</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -6335,11 +6312,23 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: This worksheet contains fields (columns) for all the metadata content elements accounted for in this metadata entry system.</a:t>
+            <a:t>: This worksheet contains fields (columns) for the most commonly included metadata elements; these are a subset of fields given in the 'Metadata Template'. </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Metadata Template</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6349,7 +6338,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Fields can be added to the Basic Metadata Template by adding columns from the ‘Metadata Template’ please do not change columns names or the metadata import will break. Columns may be rearranged for convienence.</a:t>
+            <a:t>: This worksheet contains fields (columns) for all the metadata content elements accounted for in this metadata entry system.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6363,11 +6352,47 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The ‘DatasetMetadata’ worksheet contains fields for identifying the person or persons who created the metadata record collection. This information will be propagated to the metadata contact information section in the ISO metadata documents produced from information entered in the 'Metadata Template' tab.  </a:t>
+            <a:t>Fields can be added to the 'Basic Metadata Template' from the ‘Metadata Template’ but do not change columns names or the metadata import will break. Columns may be rearranged for convenience.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DatasetMetadata: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -6377,8 +6402,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The fields in the existing table that you already have need to be matched with corresponding fields in this template, and columns of information from the existing table copied into the corresponding column in this table. Only the pink-shaded columns are required to be non-blank. In general, we expect that any useful metadata compilation will contain the minimum content requested here. If some required data are not available, put 'missing' in that field.  Other columns in the template that are not applicable or for which you have no information may be hidden to reduce clutter and make the table easier to work with. If the geographic bounding box is not applicable to the resource being described, please put in 90, -90, 180, -180 (we assume it has to do with something on earth...), and put the keyword ‘non-Geographic’ in the ‘keywords_spatial’ column. The template worksheet may also be imported into a database management system (dbms) as a table and populated using database queries. For those who are comfortable with data manipulation in a dbms, this is generally an easier way to assemble the desired table.  Various catalog hosts will probably have different workflows for getting tabular metadata from this worksheet into the database repository for the catalog system. You should be in touch with the administrators for the catalog that will host your metadata to make sure a workflow is in place to get records from the spreadsheet into the catalog.</a:t>
-          </a:r>
+            <a:t>worksheet contains fields for identifying the person or persons who created the metadata record collection. This information will be propagated to the metadata contact information section in the ISO metadata documents produced from information entered in the 'Metadata Template' tab.  If not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> all records in the data have the same metadata contact information, use the metadata contact field in the 'Metadata Template' which will be superseded by that entered in the 'DatasetMetadata' tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -6391,7 +6437,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The metadata template worksheet includes columns for the metadata content discussed in the USGIN metadata recommendations document (http://repository.usgin.org/uri_gin/usgin/dlio/335). The AASG geothermal data team in Tucson has developed scripts to validate the content of this spreadsheet, and generate a metadata record conforming to the USGIN profile for ISO 19139 xml implementation of ISO19115/119 content model (http://repository.usgin.org/uri_gin/usgin/dlio/337).</a:t>
+            <a:t>Fields in an existing table need to be matched with corresponding fields in this template, and columns of information from the existing table copied into the corresponding column in this table. Only the pink-shaded columns are required to be non-blank. In general, we expect that any useful metadata compilation will contain the minimum content requested here. If some required data are not available, put 'missing' in that field.  Other columns in the template that are not applicable or for which you have no information may be hidden to reduce clutter and make the table easier to work with. If the geographic bounding box is not applicable to the resource being described, please put in 90, -90, 180, -180 (we assume it has to do with something on earth...), and put the keyword ‘non-Geographic’ in the ‘keywords_spatial’ column. The template worksheet may also be imported into a database management system (dbms) as a table and populated using database queries. For those who are comfortable with data manipulation in a dbms, this is generally an easier way to assemble the desired table.  Various catalog hosts will probably have different workflows for getting tabular metadata from this worksheet into the database repository for the catalog system. You should be in touch with the administrators for the catalog that will host your metadata to make sure a workflow is in place to get records from the spreadsheet into the catalog.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6405,7 +6451,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Required metadata content elements are indicated on this sheet by pink color in the columns. Excel outlining has been used to group columns to allow expanding and hiding groups. The spreadsheet should open initially with all groups expanded. Look for the boxes with the ‘+’ and ‘-‘ signs at the top of the ‘Metadata template’ worksheet. Please do not change rows 1 or 2 on the ‘Metadata template’ sheet. Software to extract metadata from the spreadsheet uses the element names in row 2 for mapping to the metadata interchange format. Changes to column headings will probably result in lost data or upload failure.</a:t>
+            <a:t>The metadata template worksheet includes columns for the metadata content discussed in the USGIN metadata recommendations document (http://repository.usgin.org/uri_gin/usgin/dlio/335). The AASG geothermal data team in Tucson has developed scripts to validate the content of this spreadsheet, and generate a metadata record conforming to the USGIN profile for ISO 19139 xml implementation of ISO19115/119 content model (http://repository.usgin.org/uri_gin/usgin/dlio/337).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6419,7 +6465,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The first row of the spreadsheet contains some example data; this can be deleted when you load your metadata.</a:t>
+            <a:t>Required metadata content elements are indicated on this sheet by pink color in the columns. Excel outlining has been used to group columns to allow expanding and hiding groups. The spreadsheet should open initially with all groups expanded. Look for the boxes with the ‘+’ and ‘-‘ signs at the top of the ‘Metadata template’ worksheet. Please do not change rows 1 or 2 on the ‘Metadata template’ sheet. Software to extract metadata from the spreadsheet uses the element names in row 2 for mapping to the metadata interchange format. Changes to column headings will probably result in lost data or upload failure.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6433,7 +6479,45 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The DataValidTerms tab contains a list of resource types we recommend for usage in the ‘resource_type’ field.</a:t>
+            <a:t>The first row of the spreadsheet contains some example data; this can be deleted when you load your metadata.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DataValidTerms: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tab contains a list of resource types we recommend for usage in the ‘resource_type’ field.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6776,7 +6860,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>by users for the first leavel of result screening</a:t>
+            <a:t>by users for the first level of result screening</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -9754,15 +9838,15 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18">
+    <row r="2" spans="2:5" ht="18.75">
       <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
@@ -9777,12 +9861,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
     </row>
-    <row r="4" spans="2:5" ht="144">
+    <row r="4" spans="2:5" ht="150">
       <c r="B4" s="74" t="s">
         <v>2</v>
       </c>
@@ -9792,12 +9876,12 @@
       <c r="D4" s="73"/>
       <c r="E4" s="73"/>
     </row>
-    <row r="5" spans="2:5" ht="28.8">
+    <row r="5" spans="2:5" ht="30">
       <c r="B5" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
@@ -9886,7 +9970,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" ht="30">
       <c r="B14" s="66" t="s">
         <v>161</v>
       </c>
@@ -9914,7 +9998,7 @@
         <v>40505</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="28.8">
+    <row r="16" spans="2:5" ht="30">
       <c r="B16" s="66" t="s">
         <v>209</v>
       </c>
@@ -9942,7 +10026,7 @@
         <v>40512</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="28.8">
+    <row r="18" spans="2:5" ht="30">
       <c r="B18" s="62" t="s">
         <v>218</v>
       </c>
@@ -9956,7 +10040,7 @@
         <v>40557</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="57.6">
+    <row r="19" spans="2:5" ht="60">
       <c r="B19" s="59" t="s">
         <v>235</v>
       </c>
@@ -9998,7 +10082,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.8">
+    <row r="22" spans="2:5" ht="30">
       <c r="B22" s="66" t="s">
         <v>266</v>
       </c>
@@ -10026,7 +10110,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="28.8">
+    <row r="24" spans="2:5" ht="45">
       <c r="B24" s="66" t="s">
         <v>266</v>
       </c>
@@ -10068,7 +10152,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="28.8">
+    <row r="27" spans="2:5" ht="30">
       <c r="B27" s="66" t="s">
         <v>307</v>
       </c>
@@ -10082,7 +10166,7 @@
         <v>40773</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="79" customFormat="1" ht="28.8">
+    <row r="28" spans="2:5" s="79" customFormat="1" ht="30">
       <c r="B28" s="66" t="s">
         <v>307</v>
       </c>
@@ -10096,7 +10180,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="79" customFormat="1">
+    <row r="29" spans="2:5" s="79" customFormat="1" ht="30">
       <c r="B29" s="66" t="s">
         <v>359</v>
       </c>
@@ -10110,15 +10194,15 @@
         <v>40970</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="79" customFormat="1" ht="28.8">
+    <row r="30" spans="2:5" s="79" customFormat="1" ht="30">
       <c r="B30" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="D30" s="70" t="s">
         <v>429</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>431</v>
       </c>
       <c r="E30" s="67">
         <v>41569</v>
@@ -10130,8 +10214,8 @@
       <c r="D31" s="70"/>
       <c r="E31" s="67"/>
     </row>
-    <row r="32" spans="2:5" ht="15" thickBot="1"/>
-    <row r="33" spans="2:5" ht="15" thickBot="1">
+    <row r="32" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1">
       <c r="B33" s="115"/>
       <c r="C33" s="159" t="s">
         <v>366</v>
@@ -10149,7 +10233,7 @@
       <c r="D36" s="143"/>
       <c r="E36" s="143"/>
     </row>
-    <row r="37" spans="2:5" ht="15" thickTop="1">
+    <row r="37" spans="2:5" ht="15.75" thickTop="1">
       <c r="C37" s="139" t="s">
         <v>5</v>
       </c>
@@ -10196,13 +10280,13 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -10443,31 +10527,31 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="63.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="172" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1">
-      <c r="A2" s="174" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1">
+      <c r="A2" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="171"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3" t="s">
@@ -10575,105 +10659,105 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="161" customFormat="1" ht="64.8" customHeight="1">
-      <c r="A1" s="176" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+    <row r="1" spans="1:21" s="161" customFormat="1" ht="64.900000000000006" customHeight="1">
+      <c r="A1" s="173" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="165" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="165" t="s">
-        <v>384</v>
-      </c>
-      <c r="F2" s="167" t="s">
-        <v>391</v>
-      </c>
-      <c r="G2" s="165" t="s">
-        <v>392</v>
-      </c>
-      <c r="H2" s="165" t="s">
+      <c r="D2" s="162" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="162" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="164" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="162" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="165" t="s">
-        <v>415</v>
-      </c>
-      <c r="J2" s="165" t="s">
+      <c r="I2" s="162" t="s">
+        <v>413</v>
+      </c>
+      <c r="J2" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="165" t="s">
+      <c r="K2" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="165" t="s">
+      <c r="L2" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="168" t="s">
+      <c r="M2" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="165" t="s">
+      <c r="N2" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="165" t="s">
+      <c r="O2" s="162" t="s">
+        <v>394</v>
+      </c>
+      <c r="P2" s="162" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q2" s="162" t="s">
         <v>396</v>
       </c>
-      <c r="P2" s="165" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q2" s="165" t="s">
+      <c r="R2" s="162" t="s">
+        <v>399</v>
+      </c>
+      <c r="S2" s="162" t="s">
         <v>398</v>
       </c>
-      <c r="R2" s="165" t="s">
-        <v>401</v>
-      </c>
-      <c r="S2" s="165" t="s">
-        <v>400</v>
-      </c>
-      <c r="T2" s="165" t="s">
-        <v>407</v>
-      </c>
-      <c r="U2" s="165" t="s">
-        <v>408</v>
+      <c r="T2" s="162" t="s">
+        <v>405</v>
+      </c>
+      <c r="U2" s="162" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -10681,17 +10765,17 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:C2">
-    <cfRule type="containsBlanks" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="containsBlanks" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(L2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="containsBlanks" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(M2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10711,98 +10795,98 @@
     <tabColor rgb="FF00B0F0"/>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK3"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="151" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="151" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="155" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="151" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="151" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="151" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="155" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="151" customWidth="1"/>
     <col min="5" max="5" width="17" style="151" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="151" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="151" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="151" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="151" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="151" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="151" customWidth="1"/>
     <col min="9" max="9" width="17" style="151" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="151" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="151" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="151" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="151" customWidth="1"/>
     <col min="12" max="12" width="17" style="151" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" style="151" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="151" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="151" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="151" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="151" customWidth="1"/>
-    <col min="18" max="18" width="9.21875" style="151" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="151" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="151" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="151" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="151" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="151" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="151" customWidth="1"/>
     <col min="19" max="19" width="18" style="151" customWidth="1"/>
-    <col min="20" max="20" width="20.77734375" style="151" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" style="151" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.88671875" style="151" customWidth="1"/>
-    <col min="23" max="23" width="16.5546875" style="151" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="151" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" style="151" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="151" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="151" customWidth="1"/>
     <col min="24" max="24" width="15" style="151" customWidth="1"/>
-    <col min="25" max="25" width="14.44140625" style="151" customWidth="1"/>
-    <col min="26" max="26" width="16.21875" style="151" customWidth="1"/>
-    <col min="27" max="27" width="16.88671875" style="151" customWidth="1"/>
-    <col min="28" max="28" width="13.21875" style="151" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" style="155" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" style="155" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" style="151" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="151" customWidth="1"/>
-    <col min="33" max="33" width="10.88671875" style="151" customWidth="1"/>
-    <col min="34" max="34" width="16.21875" style="151" customWidth="1"/>
-    <col min="35" max="35" width="15.5546875" style="151" customWidth="1"/>
-    <col min="36" max="36" width="15.21875" style="151" customWidth="1"/>
-    <col min="37" max="38" width="16.88671875" style="151" customWidth="1"/>
-    <col min="39" max="39" width="15.77734375" style="151" customWidth="1"/>
-    <col min="40" max="40" width="16.6640625" style="151" customWidth="1"/>
-    <col min="41" max="44" width="16.44140625" style="151" customWidth="1"/>
-    <col min="45" max="45" width="14.6640625" style="151" customWidth="1"/>
-    <col min="46" max="46" width="15.33203125" style="151" customWidth="1"/>
-    <col min="47" max="47" width="12.5546875" style="151" customWidth="1"/>
-    <col min="48" max="48" width="13.44140625" style="151" customWidth="1"/>
-    <col min="49" max="49" width="13.109375" style="151" customWidth="1"/>
-    <col min="50" max="50" width="16.5546875" style="151" customWidth="1"/>
-    <col min="51" max="51" width="12.88671875" style="151" customWidth="1"/>
-    <col min="52" max="55" width="16.21875" style="151" customWidth="1"/>
-    <col min="56" max="56" width="17.21875" style="151" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="151" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" style="151" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" style="151" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="151" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="155" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="155" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="151" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="151" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="151" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" style="151" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" style="151" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" style="151" customWidth="1"/>
+    <col min="37" max="38" width="16.85546875" style="151" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" style="151" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" style="151" customWidth="1"/>
+    <col min="41" max="44" width="16.42578125" style="151" customWidth="1"/>
+    <col min="45" max="45" width="14.7109375" style="151" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" style="151" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" style="151" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" style="151" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" style="151" customWidth="1"/>
+    <col min="50" max="50" width="16.5703125" style="151" customWidth="1"/>
+    <col min="51" max="51" width="25.42578125" style="151" customWidth="1"/>
+    <col min="52" max="55" width="16.28515625" style="151" customWidth="1"/>
+    <col min="56" max="56" width="17.28515625" style="151" bestFit="1" customWidth="1"/>
     <col min="57" max="59" width="17" style="151" customWidth="1"/>
-    <col min="60" max="60" width="16.21875" style="151" customWidth="1"/>
-    <col min="61" max="61" width="16.77734375" style="151" customWidth="1"/>
-    <col min="62" max="62" width="16.21875" style="151" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" style="151" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="17.109375" style="151"/>
+    <col min="60" max="60" width="16.28515625" style="151" customWidth="1"/>
+    <col min="61" max="61" width="16.7109375" style="151" customWidth="1"/>
+    <col min="62" max="62" width="16.28515625" style="151" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" style="151" bestFit="1" customWidth="1"/>
+    <col min="64" max="16384" width="17.140625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="18" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="178"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="156"/>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="H1" s="180" t="s">
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="H1" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="179" t="s">
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
       <c r="T1" s="146" t="s">
         <v>46</v>
       </c>
@@ -10816,10 +10900,10 @@
       <c r="Z1" s="152"/>
       <c r="AA1" s="152"/>
       <c r="AB1" s="152"/>
-      <c r="AC1" s="181" t="s">
+      <c r="AC1" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="181"/>
+      <c r="AD1" s="178"/>
       <c r="AE1" s="149" t="s">
         <v>79</v>
       </c>
@@ -10829,19 +10913,19 @@
       <c r="AI1" s="158"/>
       <c r="AJ1" s="158"/>
       <c r="AK1" s="158"/>
-      <c r="AL1" s="177" t="s">
+      <c r="AL1" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="177"/>
-      <c r="AN1" s="177"/>
-      <c r="AO1" s="177"/>
-      <c r="AP1" s="177"/>
-      <c r="AQ1" s="177"/>
-      <c r="AR1" s="177"/>
-      <c r="AS1" s="177"/>
-      <c r="AT1" s="177"/>
-      <c r="AU1" s="177"/>
-      <c r="AV1" s="177"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="174"/>
+      <c r="AO1" s="174"/>
+      <c r="AP1" s="174"/>
+      <c r="AQ1" s="174"/>
+      <c r="AR1" s="174"/>
+      <c r="AS1" s="174"/>
+      <c r="AT1" s="174"/>
+      <c r="AU1" s="174"/>
+      <c r="AV1" s="174"/>
       <c r="AW1" s="154"/>
       <c r="AX1" s="145"/>
       <c r="AY1" s="145"/>
@@ -10861,206 +10945,194 @@
       <c r="BK1" s="145"/>
     </row>
     <row r="2" spans="1:63" s="150" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="168" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="168" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="168" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="G2" s="168" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="168" t="s">
+        <v>413</v>
+      </c>
+      <c r="J2" s="168" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="168" t="s">
         <v>385</v>
       </c>
-      <c r="F2" s="171" t="s">
+      <c r="L2" s="168" t="s">
         <v>386</v>
       </c>
-      <c r="G2" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="171" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="171" t="s">
-        <v>415</v>
-      </c>
-      <c r="J2" s="171" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="171" t="s">
+      <c r="M2" s="168" t="s">
         <v>387</v>
       </c>
-      <c r="L2" s="171" t="s">
+      <c r="N2" s="168" t="s">
         <v>388</v>
       </c>
-      <c r="M2" s="171" t="s">
+      <c r="O2" s="168" t="s">
         <v>389</v>
       </c>
-      <c r="N2" s="171" t="s">
+      <c r="P2" s="168" t="s">
         <v>390</v>
       </c>
-      <c r="O2" s="171" t="s">
+      <c r="Q2" s="168" t="s">
         <v>391</v>
       </c>
-      <c r="P2" s="171" t="s">
+      <c r="R2" s="168" t="s">
         <v>392</v>
       </c>
-      <c r="Q2" s="171" t="s">
+      <c r="S2" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="168" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="168" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="168" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y2" s="168" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA2" s="168" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB2" s="168" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC2" s="208" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD2" s="168" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE2" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="168" t="s">
         <v>393</v>
       </c>
-      <c r="R2" s="171" t="s">
+      <c r="AG2" s="168" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="168" t="s">
         <v>394</v>
       </c>
-      <c r="S2" s="171" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="171" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="171" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="171" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y2" s="171" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z2" s="171" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA2" s="171" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB2" s="171" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC2" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="171" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="171" t="s">
+      <c r="AI2" s="168" t="s">
         <v>395</v>
       </c>
-      <c r="AG2" s="171" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="171" t="s">
+      <c r="AJ2" s="168" t="s">
         <v>396</v>
       </c>
-      <c r="AI2" s="171" t="s">
+      <c r="AK2" s="168" t="s">
         <v>397</v>
       </c>
-      <c r="AJ2" s="171" t="s">
+      <c r="AL2" s="168" t="s">
         <v>398</v>
       </c>
-      <c r="AK2" s="171" t="s">
+      <c r="AM2" s="168" t="s">
         <v>399</v>
       </c>
-      <c r="AL2" s="171" t="s">
+      <c r="AN2" s="168" t="s">
         <v>400</v>
       </c>
-      <c r="AM2" s="171" t="s">
+      <c r="AO2" s="168" t="s">
         <v>401</v>
       </c>
-      <c r="AN2" s="171" t="s">
+      <c r="AP2" s="168" t="s">
         <v>402</v>
       </c>
-      <c r="AO2" s="171" t="s">
+      <c r="AQ2" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="AP2" s="171" t="s">
+      <c r="AR2" s="168" t="s">
         <v>404</v>
       </c>
-      <c r="AQ2" s="171" t="s">
+      <c r="AS2" s="168" t="s">
         <v>405</v>
       </c>
-      <c r="AR2" s="171" t="s">
+      <c r="AT2" s="168" t="s">
         <v>406</v>
       </c>
-      <c r="AS2" s="171" t="s">
+      <c r="AU2" s="168" t="s">
         <v>407</v>
       </c>
-      <c r="AT2" s="171" t="s">
+      <c r="AV2" s="168" t="s">
         <v>408</v>
       </c>
-      <c r="AU2" s="171" t="s">
+      <c r="AW2" s="168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" s="168" t="s">
+        <v>430</v>
+      </c>
+      <c r="AZ2" s="168" t="s">
         <v>409</v>
       </c>
-      <c r="AV2" s="171" t="s">
+      <c r="BA2" s="169" t="s">
         <v>410</v>
       </c>
-      <c r="AW2" s="171" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX2" s="171" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" s="171" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="171" t="s">
+      <c r="BB2" s="169" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC2" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD2" s="169" t="s">
         <v>411</v>
       </c>
-      <c r="BA2" s="172" t="s">
+      <c r="BE2" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF2" s="168" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG2" s="168" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH2" s="168" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" s="168" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ2" s="168" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK2" s="168" t="s">
         <v>412</v>
-      </c>
-      <c r="BB2" s="172" t="s">
-        <v>412</v>
-      </c>
-      <c r="BC2" s="172" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD2" s="172" t="s">
-        <v>413</v>
-      </c>
-      <c r="BE2" s="171" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF2" s="171" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG2" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH2" s="171" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI2" s="171" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ2" s="171" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK2" s="171" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" ht="68.25" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="162"/>
-      <c r="T3" s="164" t="s">
-        <v>378</v>
-      </c>
-      <c r="AZ3" s="164" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -11072,24 +11144,34 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="AC1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1 A3:F65399 U3:U65399 AE3:AE65399 W3:W65399 BC3:BC65399 AZ3:AZ65399">
-    <cfRule type="containsBlanks" dxfId="4" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="A1 A3:F65398 U3:U65398 AE3:AE65398 W3:W65398 BC3:BC65398 AZ3:AZ65398">
+    <cfRule type="containsBlanks" dxfId="8" priority="17" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G599">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+  <conditionalFormatting sqref="G3:G598">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AZ2 BE2:BK2">
-    <cfRule type="containsBlanks" dxfId="2" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:AB2 BE2:BK2 AZ2 AE2:AX2">
+    <cfRule type="containsBlanks" dxfId="6" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2" stopIfTrue="1">
+      <formula>LEN(TRIM(AY2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AD2">
+    <cfRule type="containsBlanks" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>LEN(TRIM(AC2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="expand outline to see elements" sqref="H1:J1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB65399">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB65398">
       <formula1>"ft, m"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11104,51 +11186,51 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="35" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="56" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="110" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="65.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="110" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="65.140625" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.8">
-      <c r="A1" s="188" t="s">
+    <row r="1" spans="1:16" ht="19.5">
+      <c r="A1" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="186"/>
       <c r="I1" s="54"/>
       <c r="J1" s="55"/>
     </row>
-    <row r="2" spans="1:16" ht="70.2" customHeight="1" thickBot="1">
+    <row r="2" spans="1:16" ht="70.150000000000006" customHeight="1" thickBot="1">
       <c r="A2" s="91"/>
       <c r="B2" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="170"/>
+      <c r="C2" s="167"/>
       <c r="D2" s="91"/>
       <c r="I2" s="4" t="s">
         <v>321</v>
       </c>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="1:16" ht="34.200000000000003" customHeight="1" thickBot="1">
+    <row r="3" spans="1:16" ht="34.15" customHeight="1" thickBot="1">
       <c r="A3" s="39" t="s">
         <v>149</v>
       </c>
@@ -11156,7 +11238,7 @@
         <v>143</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>319</v>
@@ -11177,24 +11259,24 @@
         <v>144</v>
       </c>
       <c r="J3" s="55"/>
-      <c r="N3" s="169" t="s">
+      <c r="N3" s="166" t="s">
+        <v>379</v>
+      </c>
+      <c r="O3" s="166" t="s">
+        <v>380</v>
+      </c>
+      <c r="P3" s="166" t="s">
         <v>381</v>
       </c>
-      <c r="O3" s="169" t="s">
-        <v>382</v>
-      </c>
-      <c r="P3" s="169" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="43.8" thickTop="1">
-      <c r="A4" s="190" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="45.75" thickTop="1">
+      <c r="A4" s="187" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="171" t="str">
+      <c r="C4" s="168" t="str">
         <f>B4</f>
         <v>title</v>
       </c>
@@ -11216,12 +11298,12 @@
       <c r="I4" s="54"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:16" ht="100.2" customHeight="1">
-      <c r="A5" s="191"/>
+    <row r="5" spans="1:16" ht="100.15" customHeight="1">
+      <c r="A5" s="188"/>
       <c r="B5" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="171" t="str">
+      <c r="C5" s="168" t="str">
         <f t="shared" ref="C5:C54" si="0">B5</f>
         <v>description</v>
       </c>
@@ -11243,12 +11325,12 @@
       <c r="I5" s="54"/>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:16" ht="16.95" customHeight="1">
+    <row r="6" spans="1:16" ht="16.899999999999999" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="171" t="str">
+      <c r="C6" s="168" t="str">
         <f t="shared" si="0"/>
         <v>publication_date</v>
       </c>
@@ -11271,14 +11353,14 @@
       <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:16" ht="18.600000000000001" customHeight="1">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="189" t="s">
         <v>147</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="171" t="s">
-        <v>384</v>
+      <c r="C7" s="168" t="s">
+        <v>382</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>323</v>
@@ -11286,7 +11368,7 @@
       <c r="E7" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="196" t="s">
+      <c r="F7" s="193" t="s">
         <v>326</v>
       </c>
       <c r="G7" s="38" t="s">
@@ -11298,13 +11380,13 @@
       <c r="I7" s="54"/>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:16" ht="129.6">
-      <c r="A8" s="183"/>
+    <row r="8" spans="1:16" ht="150">
+      <c r="A8" s="180"/>
       <c r="B8" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="171" t="s">
-        <v>385</v>
+      <c r="C8" s="168" t="s">
+        <v>383</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>323</v>
@@ -11312,7 +11394,7 @@
       <c r="E8" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="197"/>
+      <c r="F8" s="194"/>
       <c r="G8" s="38" t="s">
         <v>246</v>
       </c>
@@ -11322,13 +11404,13 @@
       <c r="I8" s="54"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:16" ht="144">
-      <c r="A9" s="183"/>
+    <row r="9" spans="1:16" ht="165">
+      <c r="A9" s="180"/>
       <c r="B9" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="171" t="s">
-        <v>386</v>
+      <c r="C9" s="168" t="s">
+        <v>384</v>
       </c>
       <c r="D9" s="95" t="s">
         <v>323</v>
@@ -11336,7 +11418,7 @@
       <c r="E9" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="F9" s="198"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="38" t="s">
         <v>247</v>
       </c>
@@ -11346,12 +11428,12 @@
       <c r="I9" s="54"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:16" ht="72">
+    <row r="10" spans="1:16" ht="75">
       <c r="A10" s="48"/>
       <c r="B10" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="171" t="str">
+      <c r="C10" s="168" t="str">
         <f t="shared" si="0"/>
         <v>resource_type</v>
       </c>
@@ -11373,14 +11455,14 @@
       <c r="I10" s="54"/>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:16" ht="115.2">
-      <c r="A11" s="193" t="s">
+    <row r="11" spans="1:16" ht="120">
+      <c r="A11" s="190" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="171" t="str">
+      <c r="C11" s="168" t="str">
         <f t="shared" si="0"/>
         <v>keywords_thematic</v>
       </c>
@@ -11404,13 +11486,13 @@
       </c>
       <c r="J11" s="55"/>
     </row>
-    <row r="12" spans="1:16" ht="187.2">
-      <c r="A12" s="194"/>
+    <row r="12" spans="1:16" ht="225">
+      <c r="A12" s="191"/>
       <c r="B12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="171" t="s">
-        <v>415</v>
+      <c r="C12" s="168" t="s">
+        <v>413</v>
       </c>
       <c r="D12" s="96" t="s">
         <v>323</v>
@@ -11432,12 +11514,12 @@
       </c>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="1:16" ht="34.200000000000003" customHeight="1">
-      <c r="A13" s="195"/>
+    <row r="13" spans="1:16" ht="34.15" customHeight="1">
+      <c r="A13" s="192"/>
       <c r="B13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="171" t="str">
+      <c r="C13" s="168" t="str">
         <f t="shared" si="0"/>
         <v>keywords_temporal</v>
       </c>
@@ -11461,15 +11543,15 @@
       </c>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="1:16" ht="28.8">
-      <c r="A14" s="183" t="s">
+    <row r="14" spans="1:16" ht="33.75">
+      <c r="A14" s="180" t="s">
         <v>148</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="171" t="s">
-        <v>387</v>
+      <c r="C14" s="168" t="s">
+        <v>385</v>
       </c>
       <c r="D14" s="96" t="s">
         <v>323</v>
@@ -11489,13 +11571,13 @@
       <c r="I14" s="54"/>
       <c r="J14" s="55"/>
     </row>
-    <row r="15" spans="1:16" ht="28.8">
-      <c r="A15" s="183"/>
+    <row r="15" spans="1:16" ht="45">
+      <c r="A15" s="180"/>
       <c r="B15" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="171" t="s">
-        <v>388</v>
+      <c r="C15" s="168" t="s">
+        <v>386</v>
       </c>
       <c r="D15" s="96" t="s">
         <v>323</v>
@@ -11515,13 +11597,13 @@
       <c r="I15" s="54"/>
       <c r="J15" s="55"/>
     </row>
-    <row r="16" spans="1:16" ht="43.2">
-      <c r="A16" s="183"/>
+    <row r="16" spans="1:16" ht="45">
+      <c r="A16" s="180"/>
       <c r="B16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="171" t="s">
-        <v>389</v>
+      <c r="C16" s="168" t="s">
+        <v>387</v>
       </c>
       <c r="D16" s="96" t="s">
         <v>323</v>
@@ -11541,13 +11623,13 @@
       <c r="I16" s="54"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="1:10" ht="43.2">
-      <c r="A17" s="183"/>
+    <row r="17" spans="1:10" ht="45">
+      <c r="A17" s="180"/>
       <c r="B17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="171" t="s">
-        <v>390</v>
+      <c r="C17" s="168" t="s">
+        <v>388</v>
       </c>
       <c r="D17" s="96" t="s">
         <v>323</v>
@@ -11567,13 +11649,13 @@
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
     </row>
-    <row r="18" spans="1:10" ht="115.2">
-      <c r="A18" s="183"/>
+    <row r="18" spans="1:10" ht="135">
+      <c r="A18" s="180"/>
       <c r="B18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="171" t="s">
-        <v>391</v>
+      <c r="C18" s="168" t="s">
+        <v>389</v>
       </c>
       <c r="D18" s="97" t="s">
         <v>323</v>
@@ -11581,7 +11663,7 @@
       <c r="E18" s="97" t="s">
         <v>327</v>
       </c>
-      <c r="F18" s="196" t="s">
+      <c r="F18" s="193" t="s">
         <v>329</v>
       </c>
       <c r="G18" s="38" t="s">
@@ -11593,13 +11675,13 @@
       <c r="I18" s="55"/>
       <c r="J18" s="55"/>
     </row>
-    <row r="19" spans="1:10" ht="40.799999999999997">
-      <c r="A19" s="183"/>
+    <row r="19" spans="1:10" ht="45">
+      <c r="A19" s="180"/>
       <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="171" t="s">
-        <v>392</v>
+      <c r="C19" s="168" t="s">
+        <v>390</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>323</v>
@@ -11607,7 +11689,7 @@
       <c r="E19" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="198"/>
+      <c r="F19" s="195"/>
       <c r="G19" s="30" t="s">
         <v>363</v>
       </c>
@@ -11617,13 +11699,13 @@
       <c r="I19" s="55"/>
       <c r="J19" s="55"/>
     </row>
-    <row r="20" spans="1:10" ht="40.799999999999997">
-      <c r="A20" s="183"/>
+    <row r="20" spans="1:10" ht="45">
+      <c r="A20" s="180"/>
       <c r="B20" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="171" t="s">
-        <v>393</v>
+      <c r="C20" s="168" t="s">
+        <v>391</v>
       </c>
       <c r="D20" s="96" t="s">
         <v>323</v>
@@ -11643,13 +11725,13 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
     </row>
-    <row r="21" spans="1:10" ht="30.6">
-      <c r="A21" s="183"/>
+    <row r="21" spans="1:10" ht="45">
+      <c r="A21" s="180"/>
       <c r="B21" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="171" t="s">
-        <v>394</v>
+      <c r="C21" s="168" t="s">
+        <v>392</v>
       </c>
       <c r="D21" s="96" t="s">
         <v>323</v>
@@ -11669,12 +11751,12 @@
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
     </row>
-    <row r="22" spans="1:10" ht="43.2">
-      <c r="A22" s="184"/>
+    <row r="22" spans="1:10" ht="45">
+      <c r="A22" s="181"/>
       <c r="B22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="171" t="str">
+      <c r="C22" s="168" t="str">
         <f t="shared" si="0"/>
         <v>bibliographic_citation</v>
       </c>
@@ -11696,14 +11778,14 @@
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="23" spans="1:10" ht="34.200000000000003" customHeight="1">
+    <row r="23" spans="1:10" ht="34.15" customHeight="1">
       <c r="A23" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="171" t="str">
+      <c r="C23" s="168" t="str">
         <f t="shared" si="0"/>
         <v>north_bounding_latitude</v>
       </c>
@@ -11713,10 +11795,10 @@
       <c r="E23" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="F23" s="196" t="s">
+      <c r="F23" s="193" t="s">
         <v>338</v>
       </c>
-      <c r="G23" s="199" t="s">
+      <c r="G23" s="196" t="s">
         <v>339</v>
       </c>
       <c r="H23" s="112" t="s">
@@ -11725,14 +11807,14 @@
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
     </row>
-    <row r="24" spans="1:10" ht="27.6">
+    <row r="24" spans="1:10" ht="33.75">
       <c r="A24" s="33" t="s">
         <v>157</v>
       </c>
       <c r="B24" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="171" t="str">
+      <c r="C24" s="168" t="str">
         <f t="shared" si="0"/>
         <v>south_bounding_latitude</v>
       </c>
@@ -11742,20 +11824,20 @@
       <c r="E24" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="197"/>
-      <c r="G24" s="200"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="197"/>
       <c r="H24" s="112" t="s">
         <v>158</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="20.399999999999999">
+    <row r="25" spans="1:10" ht="33.75">
       <c r="A25" s="43"/>
       <c r="B25" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="171" t="str">
+      <c r="C25" s="168" t="str">
         <f t="shared" si="0"/>
         <v>east_bounding_longitude</v>
       </c>
@@ -11765,20 +11847,20 @@
       <c r="E25" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="F25" s="197"/>
-      <c r="G25" s="200"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="197"/>
       <c r="H25" s="112" t="s">
         <v>159</v>
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10" ht="20.399999999999999">
+    <row r="26" spans="1:10" ht="33.75">
       <c r="A26" s="43"/>
       <c r="B26" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="171" t="str">
+      <c r="C26" s="168" t="str">
         <f t="shared" si="0"/>
         <v>west_bounding_longitude</v>
       </c>
@@ -11788,22 +11870,22 @@
       <c r="E26" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="F26" s="198"/>
-      <c r="G26" s="201"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="198"/>
       <c r="H26" s="112" t="s">
         <v>160</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="72">
+    <row r="27" spans="1:10" ht="75">
       <c r="A27" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="171" t="str">
+      <c r="C27" s="168" t="str">
         <f t="shared" si="0"/>
         <v>surface_elevation</v>
       </c>
@@ -11823,12 +11905,12 @@
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
     </row>
-    <row r="28" spans="1:10" ht="158.4">
+    <row r="28" spans="1:10" ht="180">
       <c r="A28" s="44"/>
       <c r="B28" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="171" t="str">
+      <c r="C28" s="168" t="str">
         <f t="shared" si="0"/>
         <v>datum_elevation</v>
       </c>
@@ -11850,12 +11932,12 @@
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
     </row>
-    <row r="29" spans="1:10" ht="172.8">
+    <row r="29" spans="1:10" ht="210">
       <c r="A29" s="44"/>
       <c r="B29" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="171" t="str">
+      <c r="C29" s="168" t="str">
         <f t="shared" si="0"/>
         <v>interval_depth_top</v>
       </c>
@@ -11875,12 +11957,12 @@
       <c r="I29" s="55"/>
       <c r="J29" s="55"/>
     </row>
-    <row r="30" spans="1:10" ht="187.2">
+    <row r="30" spans="1:10" ht="210">
       <c r="A30" s="41"/>
       <c r="B30" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="171" t="str">
+      <c r="C30" s="168" t="str">
         <f t="shared" si="0"/>
         <v>interval_depth_bottom</v>
       </c>
@@ -11900,14 +11982,14 @@
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
-    <row r="31" spans="1:10" ht="115.2">
-      <c r="A31" s="185" t="s">
+    <row r="31" spans="1:10" ht="135">
+      <c r="A31" s="182" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="171" t="str">
+      <c r="C31" s="168" t="str">
         <f t="shared" si="0"/>
         <v>elevation_units</v>
       </c>
@@ -11926,14 +12008,13 @@
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
-    <row r="32" spans="1:10" ht="288">
-      <c r="A32" s="186"/>
+    <row r="32" spans="1:10" ht="345">
+      <c r="A32" s="183"/>
       <c r="B32" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="171" t="str">
-        <f t="shared" si="0"/>
-        <v>temporal_start_date</v>
+      <c r="C32" s="208" t="s">
+        <v>431</v>
       </c>
       <c r="D32" s="104" t="s">
         <v>325</v>
@@ -11953,16 +12034,15 @@
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
     </row>
-    <row r="33" spans="1:12" ht="244.8">
+    <row r="33" spans="1:12" ht="285">
       <c r="A33" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="171" t="str">
-        <f t="shared" si="0"/>
-        <v>temporal_end_date</v>
+      <c r="C33" s="168" t="s">
+        <v>432</v>
       </c>
       <c r="D33" s="104" t="s">
         <v>325</v>
@@ -11982,12 +12062,12 @@
       <c r="I33" s="54"/>
       <c r="J33" s="54"/>
     </row>
-    <row r="34" spans="1:12" ht="43.2">
+    <row r="34" spans="1:12" ht="45">
       <c r="A34" s="42"/>
       <c r="B34" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="171" t="str">
+      <c r="C34" s="168" t="str">
         <f t="shared" si="0"/>
         <v>resource_languages</v>
       </c>
@@ -12009,13 +12089,13 @@
       <c r="I34" s="54"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:12" ht="86.4">
+    <row r="35" spans="1:12" ht="105">
       <c r="A35" s="42"/>
       <c r="B35" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="171" t="s">
-        <v>395</v>
+      <c r="C35" s="168" t="s">
+        <v>393</v>
       </c>
       <c r="D35" s="96" t="s">
         <v>331</v>
@@ -12032,12 +12112,12 @@
       <c r="I35" s="54"/>
       <c r="J35" s="54"/>
     </row>
-    <row r="36" spans="1:12" ht="360">
+    <row r="36" spans="1:12" ht="409.5">
       <c r="A36" s="42"/>
       <c r="B36" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="171" t="str">
+      <c r="C36" s="168" t="str">
         <f t="shared" si="0"/>
         <v>resource_url</v>
       </c>
@@ -12056,13 +12136,13 @@
       <c r="I36" s="54"/>
       <c r="J36" s="54"/>
     </row>
-    <row r="37" spans="1:12" ht="44.4" customHeight="1">
+    <row r="37" spans="1:12" ht="44.45" customHeight="1">
       <c r="A37" s="42"/>
       <c r="B37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="171" t="s">
-        <v>396</v>
+      <c r="C37" s="168" t="s">
+        <v>394</v>
       </c>
       <c r="D37" s="96" t="s">
         <v>323</v>
@@ -12084,13 +12164,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="55.95" customHeight="1">
+    <row r="38" spans="1:12" ht="55.9" customHeight="1">
       <c r="A38" s="42"/>
       <c r="B38" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="171" t="s">
-        <v>397</v>
+      <c r="C38" s="168" t="s">
+        <v>395</v>
       </c>
       <c r="D38" s="96" t="s">
         <v>323</v>
@@ -12110,13 +12190,13 @@
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
     </row>
-    <row r="39" spans="1:12" ht="31.2" customHeight="1">
+    <row r="39" spans="1:12" ht="31.15" customHeight="1">
       <c r="A39" s="42"/>
       <c r="B39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="171" t="s">
-        <v>398</v>
+      <c r="C39" s="168" t="s">
+        <v>396</v>
       </c>
       <c r="D39" s="96" t="s">
         <v>323</v>
@@ -12136,15 +12216,15 @@
       <c r="I39" s="54"/>
       <c r="J39" s="54"/>
     </row>
-    <row r="40" spans="1:12" ht="31.2" customHeight="1">
-      <c r="A40" s="185" t="s">
+    <row r="40" spans="1:12" ht="31.15" customHeight="1">
+      <c r="A40" s="182" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="171" t="s">
-        <v>399</v>
+      <c r="C40" s="168" t="s">
+        <v>397</v>
       </c>
       <c r="D40" s="96" t="s">
         <v>323</v>
@@ -12164,13 +12244,13 @@
       <c r="I40" s="54"/>
       <c r="J40" s="54"/>
     </row>
-    <row r="41" spans="1:12" ht="31.95" customHeight="1">
-      <c r="A41" s="187"/>
+    <row r="41" spans="1:12" ht="31.9" customHeight="1">
+      <c r="A41" s="184"/>
       <c r="B41" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="171" t="s">
-        <v>400</v>
+      <c r="C41" s="168" t="s">
+        <v>398</v>
       </c>
       <c r="D41" s="96" t="s">
         <v>323</v>
@@ -12178,7 +12258,7 @@
       <c r="E41" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="F41" s="182" t="s">
+      <c r="F41" s="179" t="s">
         <v>343</v>
       </c>
       <c r="G41" s="38" t="s">
@@ -12190,13 +12270,13 @@
       <c r="I41" s="54"/>
       <c r="J41" s="54"/>
     </row>
-    <row r="42" spans="1:12" ht="23.4" customHeight="1">
-      <c r="A42" s="187"/>
+    <row r="42" spans="1:12" ht="23.45" customHeight="1">
+      <c r="A42" s="184"/>
       <c r="B42" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="171" t="s">
-        <v>401</v>
+      <c r="C42" s="168" t="s">
+        <v>399</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>323</v>
@@ -12204,7 +12284,7 @@
       <c r="E42" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="F42" s="182"/>
+      <c r="F42" s="179"/>
       <c r="G42" s="38" t="s">
         <v>258</v>
       </c>
@@ -12214,13 +12294,13 @@
       <c r="I42" s="54"/>
       <c r="J42" s="54"/>
     </row>
-    <row r="43" spans="1:12" ht="34.950000000000003" customHeight="1">
-      <c r="A43" s="187"/>
+    <row r="43" spans="1:12" ht="34.9" customHeight="1">
+      <c r="A43" s="184"/>
       <c r="B43" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="171" t="s">
-        <v>402</v>
+      <c r="C43" s="168" t="s">
+        <v>400</v>
       </c>
       <c r="D43" s="96" t="s">
         <v>323</v>
@@ -12228,7 +12308,7 @@
       <c r="E43" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="F43" s="182"/>
+      <c r="F43" s="179"/>
       <c r="G43" s="38" t="s">
         <v>344</v>
       </c>
@@ -12238,13 +12318,13 @@
       <c r="K43" s="77"/>
       <c r="L43" s="77"/>
     </row>
-    <row r="44" spans="1:12" ht="30.6">
-      <c r="A44" s="187"/>
+    <row r="44" spans="1:12" ht="33.75">
+      <c r="A44" s="184"/>
       <c r="B44" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="171" t="s">
-        <v>403</v>
+      <c r="C44" s="168" t="s">
+        <v>401</v>
       </c>
       <c r="D44" s="96" t="s">
         <v>323</v>
@@ -12259,13 +12339,13 @@
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
     </row>
-    <row r="45" spans="1:12" ht="30.6">
-      <c r="A45" s="187"/>
+    <row r="45" spans="1:12" ht="33.75">
+      <c r="A45" s="184"/>
       <c r="B45" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="171" t="s">
-        <v>404</v>
+      <c r="C45" s="168" t="s">
+        <v>402</v>
       </c>
       <c r="D45" s="96" t="s">
         <v>323</v>
@@ -12280,13 +12360,13 @@
       <c r="I45" s="54"/>
       <c r="J45" s="54"/>
     </row>
-    <row r="46" spans="1:12" ht="40.799999999999997">
-      <c r="A46" s="187"/>
+    <row r="46" spans="1:12" ht="45">
+      <c r="A46" s="184"/>
       <c r="B46" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="171" t="s">
-        <v>405</v>
+      <c r="C46" s="168" t="s">
+        <v>403</v>
       </c>
       <c r="D46" s="96" t="s">
         <v>323</v>
@@ -12301,13 +12381,13 @@
       <c r="I46" s="54"/>
       <c r="J46" s="54"/>
     </row>
-    <row r="47" spans="1:12" ht="40.799999999999997">
-      <c r="A47" s="187"/>
+    <row r="47" spans="1:12" ht="45">
+      <c r="A47" s="184"/>
       <c r="B47" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="171" t="s">
-        <v>406</v>
+      <c r="C47" s="168" t="s">
+        <v>404</v>
       </c>
       <c r="D47" s="96" t="s">
         <v>323</v>
@@ -12322,13 +12402,13 @@
       <c r="I47" s="54"/>
       <c r="J47" s="54"/>
     </row>
-    <row r="48" spans="1:12" ht="44.4" customHeight="1">
-      <c r="A48" s="187"/>
+    <row r="48" spans="1:12" ht="44.45" customHeight="1">
+      <c r="A48" s="184"/>
       <c r="B48" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="171" t="s">
-        <v>407</v>
+      <c r="C48" s="168" t="s">
+        <v>405</v>
       </c>
       <c r="D48" s="96" t="s">
         <v>323</v>
@@ -12336,7 +12416,7 @@
       <c r="E48" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="F48" s="182" t="s">
+      <c r="F48" s="179" t="s">
         <v>343</v>
       </c>
       <c r="G48" s="54"/>
@@ -12347,12 +12427,12 @@
       <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="45.6" customHeight="1">
-      <c r="A49" s="186"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="171" t="s">
-        <v>408</v>
+      <c r="C49" s="168" t="s">
+        <v>406</v>
       </c>
       <c r="D49" s="96" t="s">
         <v>323</v>
@@ -12360,7 +12440,7 @@
       <c r="E49" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="F49" s="182"/>
+      <c r="F49" s="179"/>
       <c r="G49" s="54"/>
       <c r="H49" s="112" t="s">
         <v>190</v>
@@ -12368,13 +12448,13 @@
       <c r="I49" s="54"/>
       <c r="J49" s="54"/>
     </row>
-    <row r="50" spans="1:10" ht="30.6">
+    <row r="50" spans="1:10" ht="33.75">
       <c r="A50" s="51"/>
       <c r="B50" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="171" t="s">
-        <v>409</v>
+      <c r="C50" s="168" t="s">
+        <v>407</v>
       </c>
       <c r="D50" s="96" t="s">
         <v>323</v>
@@ -12392,13 +12472,13 @@
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
     </row>
-    <row r="51" spans="1:10" ht="30.6">
+    <row r="51" spans="1:10" ht="33.75">
       <c r="A51" s="52"/>
       <c r="B51" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="171" t="s">
-        <v>410</v>
+      <c r="C51" s="168" t="s">
+        <v>408</v>
       </c>
       <c r="D51" s="96" t="s">
         <v>331</v>
@@ -12416,12 +12496,12 @@
       <c r="I51" s="55"/>
       <c r="J51" s="55"/>
     </row>
-    <row r="52" spans="1:10" ht="144">
+    <row r="52" spans="1:10" ht="180">
       <c r="A52" s="48"/>
       <c r="B52" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="171" t="str">
+      <c r="C52" s="168" t="str">
         <f t="shared" si="0"/>
         <v>metadata_date</v>
       </c>
@@ -12443,14 +12523,14 @@
       <c r="I52" s="55"/>
       <c r="J52" s="55"/>
     </row>
-    <row r="53" spans="1:10" s="56" customFormat="1" ht="43.2">
+    <row r="53" spans="1:10" s="56" customFormat="1" ht="60">
       <c r="A53" s="88" t="s">
         <v>67</v>
       </c>
       <c r="B53" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="171" t="str">
+      <c r="C53" s="168" t="str">
         <f t="shared" si="0"/>
         <v>metadata_language</v>
       </c>
@@ -12470,14 +12550,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="56" customFormat="1" ht="230.4">
+    <row r="54" spans="1:10" s="56" customFormat="1" ht="285">
       <c r="A54" s="89"/>
       <c r="B54" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="171" t="str">
-        <f t="shared" si="0"/>
-        <v>metadata_uuid</v>
+      <c r="C54" s="168" t="s">
+        <v>430</v>
       </c>
       <c r="D54" s="96" t="s">
         <v>333</v>
@@ -12495,13 +12574,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="56" customFormat="1" ht="57.6">
+    <row r="55" spans="1:10" s="56" customFormat="1" ht="60">
       <c r="A55" s="89"/>
       <c r="B55" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="171" t="s">
-        <v>411</v>
+      <c r="C55" s="168" t="s">
+        <v>409</v>
       </c>
       <c r="D55" s="96" t="s">
         <v>323</v>
@@ -12509,7 +12588,7 @@
       <c r="E55" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="F55" s="182" t="s">
+      <c r="F55" s="179" t="s">
         <v>347</v>
       </c>
       <c r="G55" s="38" t="s">
@@ -12524,8 +12603,8 @@
       <c r="B56" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="172" t="s">
-        <v>412</v>
+      <c r="C56" s="169" t="s">
+        <v>410</v>
       </c>
       <c r="D56" s="96" t="s">
         <v>323</v>
@@ -12533,7 +12612,7 @@
       <c r="E56" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="F56" s="182"/>
+      <c r="F56" s="179"/>
       <c r="G56" s="38" t="s">
         <v>262</v>
       </c>
@@ -12541,13 +12620,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="56" customFormat="1" ht="28.8">
+    <row r="57" spans="1:10" s="56" customFormat="1" ht="30">
       <c r="A57" s="89"/>
       <c r="B57" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="172" t="s">
-        <v>412</v>
+      <c r="C57" s="169" t="s">
+        <v>410</v>
       </c>
       <c r="D57" s="103" t="s">
         <v>323</v>
@@ -12555,18 +12634,18 @@
       <c r="E57" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="F57" s="182"/>
+      <c r="F57" s="179"/>
       <c r="G57" s="38" t="s">
         <v>348</v>
       </c>
       <c r="H57" s="112"/>
     </row>
-    <row r="58" spans="1:10" s="56" customFormat="1" ht="43.2">
+    <row r="58" spans="1:10" s="56" customFormat="1" ht="60">
       <c r="A58" s="89"/>
       <c r="B58" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="172" t="str">
+      <c r="C58" s="169" t="str">
         <f>B58</f>
         <v>metadata_contact_email</v>
       </c>
@@ -12586,13 +12665,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="56" customFormat="1" ht="30.6">
+    <row r="59" spans="1:10" s="56" customFormat="1" ht="45">
       <c r="A59" s="89"/>
       <c r="B59" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="172" t="s">
-        <v>413</v>
+      <c r="C59" s="169" t="s">
+        <v>411</v>
       </c>
       <c r="D59" s="96" t="s">
         <v>323</v>
@@ -12612,7 +12691,7 @@
       <c r="B60" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="171" t="str">
+      <c r="C60" s="168" t="str">
         <f>B60</f>
         <v>metadata_contact_city</v>
       </c>
@@ -12629,12 +12708,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="56" customFormat="1" ht="40.799999999999997">
+    <row r="61" spans="1:10" s="56" customFormat="1" ht="45">
       <c r="A61" s="89"/>
       <c r="B61" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="171" t="str">
+      <c r="C61" s="168" t="str">
         <f t="shared" ref="C61:C65" si="1">B61</f>
         <v>metadata_contact_state</v>
       </c>
@@ -12651,12 +12730,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="56" customFormat="1" ht="30.6">
+    <row r="62" spans="1:10" s="56" customFormat="1" ht="33.75">
       <c r="A62" s="90"/>
       <c r="B62" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="171" t="str">
+      <c r="C62" s="168" t="str">
         <f t="shared" si="1"/>
         <v>metadata_contact_zip</v>
       </c>
@@ -12673,12 +12752,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30.6">
+    <row r="63" spans="1:10" ht="45">
       <c r="A63" s="78"/>
       <c r="B63" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="171" t="str">
+      <c r="C63" s="168" t="str">
         <f t="shared" si="1"/>
         <v>metadata_contact_phone</v>
       </c>
@@ -12698,12 +12777,12 @@
       <c r="I63" s="55"/>
       <c r="J63" s="55"/>
     </row>
-    <row r="64" spans="1:10" ht="30.6">
+    <row r="64" spans="1:10" ht="45">
       <c r="A64" s="32"/>
       <c r="B64" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="171" t="str">
+      <c r="C64" s="168" t="str">
         <f t="shared" si="1"/>
         <v>metadata_contact_fax</v>
       </c>
@@ -12723,14 +12802,14 @@
       <c r="I64" s="55"/>
       <c r="J64" s="55"/>
     </row>
-    <row r="65" spans="1:10" ht="41.4" thickBot="1">
+    <row r="65" spans="1:10" ht="57" thickBot="1">
       <c r="A65" s="86" t="s">
         <v>194</v>
       </c>
       <c r="B65" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="171" t="str">
+      <c r="C65" s="168" t="str">
         <f t="shared" si="1"/>
         <v>metadata_contact_url</v>
       </c>
@@ -12750,13 +12829,13 @@
       <c r="I65" s="55"/>
       <c r="J65" s="55"/>
     </row>
-    <row r="66" spans="1:10" ht="194.4" thickTop="1">
+    <row r="66" spans="1:10" ht="259.5" thickTop="1">
       <c r="A66" s="29"/>
       <c r="B66" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="171" t="s">
-        <v>414</v>
+      <c r="C66" s="168" t="s">
+        <v>412</v>
       </c>
       <c r="D66" s="96" t="s">
         <v>323</v>
@@ -12821,12 +12900,12 @@
     <mergeCell ref="F48:F49"/>
   </mergeCells>
   <conditionalFormatting sqref="B23 B34 B41 A4:C4 A50:A51 B52:B53 B26 B5:B6 C5:C55 C60:C66">
-    <cfRule type="containsBlanks" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsBlanks" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(B55))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12850,22 +12929,22 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="78.21875" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="87" customFormat="1" ht="15" thickBot="1"/>
+    <row r="1" spans="1:3" s="87" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:3" s="87" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>316</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:3" s="87" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" s="87" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>317</v>
       </c>
@@ -12879,14 +12958,14 @@
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="202" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.399999999999999" thickTop="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="199" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+    </row>
+    <row r="7" spans="1:3" ht="20.25" thickTop="1">
       <c r="A7" s="26" t="s">
         <v>108</v>
       </c>
@@ -12897,7 +12976,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="187.2">
+    <row r="8" spans="1:3" ht="210">
       <c r="A8" s="23" t="s">
         <v>86</v>
       </c>
@@ -12908,40 +12987,40 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="144">
+    <row r="9" spans="1:3" ht="165">
       <c r="A9" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6">
+    <row r="10" spans="1:3" ht="60">
       <c r="A10" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="23" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="23" t="s">
         <v>89</v>
       </c>
@@ -12952,40 +13031,40 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="57.6">
+    <row r="13" spans="1:3" ht="60">
       <c r="A13" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72">
+    <row r="14" spans="1:3" ht="90">
       <c r="A14" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="57.6">
+    <row r="15" spans="1:3" ht="60">
       <c r="A15" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="173" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="86.4">
+      <c r="C15" s="170" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="105">
       <c r="A16" s="23" t="s">
         <v>90</v>
       </c>
@@ -12996,7 +13075,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="57.6">
+    <row r="17" spans="1:3" ht="60">
       <c r="A17" s="23" t="s">
         <v>91</v>
       </c>
@@ -13007,7 +13086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.2">
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" s="23" t="s">
         <v>95</v>
       </c>
@@ -13018,7 +13097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="72">
+    <row r="19" spans="1:3" ht="90">
       <c r="A19" s="23" t="s">
         <v>92</v>
       </c>
@@ -13029,7 +13108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.2">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="23" t="s">
         <v>93</v>
       </c>
@@ -13040,7 +13119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="57.6">
+    <row r="21" spans="1:3" ht="75">
       <c r="A21" s="23" t="s">
         <v>94</v>
       </c>
@@ -13051,7 +13130,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" s="23" t="s">
         <v>96</v>
       </c>
@@ -13062,7 +13141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="72">
+    <row r="23" spans="1:3" ht="75">
       <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
@@ -13073,7 +13152,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.2">
+    <row r="24" spans="1:3" ht="45">
       <c r="A24" s="23" t="s">
         <v>98</v>
       </c>
@@ -13084,7 +13163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.2">
+    <row r="25" spans="1:3" ht="45">
       <c r="A25" s="23" t="s">
         <v>99</v>
       </c>
@@ -13095,9 +13174,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="57.6">
+    <row r="26" spans="1:3" ht="60">
       <c r="A26" s="23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>127</v>
@@ -13106,7 +13185,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72">
+    <row r="27" spans="1:3" ht="90">
       <c r="A27" s="23" t="s">
         <v>100</v>
       </c>
@@ -13117,7 +13196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72">
+    <row r="28" spans="1:3" ht="75">
       <c r="A28" s="23" t="s">
         <v>101</v>
       </c>
@@ -13128,7 +13207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="158.4">
+    <row r="29" spans="1:3" ht="180">
       <c r="A29" s="23" t="s">
         <v>102</v>
       </c>
@@ -13139,7 +13218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8">
+    <row r="30" spans="1:3" ht="30">
       <c r="A30" s="23" t="s">
         <v>103</v>
       </c>
@@ -13148,9 +13227,9 @@
       </c>
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="1:3" ht="100.8">
+    <row r="31" spans="1:3" ht="120">
       <c r="A31" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>133</v>
@@ -13159,7 +13238,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="115.2">
+    <row r="32" spans="1:3" ht="135">
       <c r="A32" s="23" t="s">
         <v>104</v>
       </c>
@@ -13186,7 +13265,7 @@
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -13200,7 +13279,7 @@
       </c>
       <c r="C57" s="28"/>
     </row>
-    <row r="58" spans="1:3" ht="29.4" thickBot="1">
+    <row r="58" spans="1:3" ht="30.75" thickBot="1">
       <c r="A58" s="19" t="s">
         <v>305</v>
       </c>
@@ -13214,12 +13293,12 @@
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
     </row>
-    <row r="61" spans="1:3" ht="57.6">
+    <row r="61" spans="1:3" ht="60">
       <c r="A61" s="15" t="s">
         <v>220</v>
       </c>
@@ -13246,7 +13325,7 @@
       </c>
       <c r="C63" s="28"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="30">
       <c r="A64" s="14" t="s">
         <v>225</v>
       </c>
@@ -13255,7 +13334,7 @@
       </c>
       <c r="C64" s="28"/>
     </row>
-    <row r="65" spans="1:3" ht="28.8">
+    <row r="65" spans="1:3" ht="30">
       <c r="A65" s="14" t="s">
         <v>226</v>
       </c>
@@ -13264,7 +13343,7 @@
       </c>
       <c r="C65" s="28"/>
     </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66" s="12" t="s">
         <v>227</v>
       </c>
@@ -13296,19 +13375,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.95" customHeight="1">
+    <row r="1" spans="1:9" ht="31.9" customHeight="1">
       <c r="A1" s="120" t="s">
         <v>367</v>
       </c>
@@ -13321,7 +13400,7 @@
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="123"/>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
@@ -13333,19 +13412,19 @@
       <c r="I2" s="118"/>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="201" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="118"/>
       <c r="G3" s="118"/>
       <c r="H3" s="118"/>
       <c r="I3" s="118"/>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="4" spans="1:9" ht="19.5" thickBot="1">
       <c r="A4" s="123"/>
       <c r="B4" s="118"/>
       <c r="C4" s="118"/>
@@ -13357,19 +13436,19 @@
       <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:9" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="205" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="210"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="207"/>
       <c r="H5" s="118"/>
       <c r="I5" s="118"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="118"/>
       <c r="B6" s="118"/>
       <c r="C6" s="118"/>
@@ -13380,20 +13459,20 @@
       <c r="H6" s="118"/>
       <c r="I6" s="118"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A7" s="205" t="s">
+    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="202" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="204"/>
       <c r="E7" s="118"/>
       <c r="F7" s="118"/>
       <c r="G7" s="118"/>
       <c r="H7" s="118"/>
       <c r="I7" s="118"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickTop="1">
+    <row r="8" spans="1:9" ht="15.75" thickTop="1">
       <c r="A8" s="118"/>
       <c r="B8" s="118"/>
       <c r="C8" s="118"/>
@@ -13404,7 +13483,7 @@
       <c r="H8" s="118"/>
       <c r="I8" s="118"/>
     </row>
-    <row r="9" spans="1:9" ht="18">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="123" t="s">
         <v>268</v>
       </c>
@@ -13417,18 +13496,18 @@
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
-      <c r="A10" s="203"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="200"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
       <c r="E10" s="116"/>
       <c r="F10" s="116"/>
       <c r="G10" s="118"/>
       <c r="H10" s="118"/>
       <c r="I10" s="118"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1">
       <c r="A11" s="132" t="s">
         <v>269</v>
       </c>
@@ -13468,7 +13547,7 @@
       <c r="H12" s="131"/>
       <c r="I12" s="131"/>
     </row>
-    <row r="13" spans="1:9" ht="28.8">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="131"/>
       <c r="B13" s="131"/>
       <c r="C13" s="131"/>
@@ -13491,7 +13570,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="43.2">
+    <row r="14" spans="1:9" ht="45">
       <c r="A14" s="131"/>
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
@@ -13515,7 +13594,7 @@
       <c r="H15" s="131"/>
       <c r="I15" s="131"/>
     </row>
-    <row r="16" spans="1:9" ht="72">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="131"/>
       <c r="B16" s="129"/>
       <c r="C16" s="129"/>
@@ -13748,7 +13827,7 @@
       <c r="H36" s="118"/>
       <c r="I36" s="118"/>
     </row>
-    <row r="37" spans="1:9" ht="18">
+    <row r="37" spans="1:9" ht="18.75">
       <c r="A37" s="123" t="s">
         <v>297</v>
       </c>
@@ -13782,7 +13861,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
